--- a/messy-project-directory/Survey Data_clean.xlsx
+++ b/messy-project-directory/Survey Data_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carac\Documents\UW MCB PhD\Computational Tools\tfcb_homework02\tfcb-homework02\messy-project-directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E7607F-F1F7-47F4-9E35-4AC40A87D0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5248F27B-F10F-42D8-A758-1E565E79ABBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="41">
   <si>
     <t>NA</t>
   </si>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Weight (g) (calibrated) </t>
   </si>
   <si>
-    <t>Weight (g) (not calibrated)</t>
-  </si>
-  <si>
     <t>2013-08-19</t>
   </si>
   <si>
@@ -139,6 +136,21 @@
   </si>
   <si>
     <t>x indicates no data recorded</t>
+  </si>
+  <si>
+    <t>132*</t>
+  </si>
+  <si>
+    <t>113*</t>
+  </si>
+  <si>
+    <t>157*</t>
+  </si>
+  <si>
+    <t>219*</t>
+  </si>
+  <si>
+    <t>* indicates data not calibrated</t>
   </si>
 </sst>
 </file>
@@ -176,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -185,9 +197,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -595,7 +604,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -639,7 +648,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -661,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83990D8B-2392-4656-AC03-C630F945A319}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -672,11 +681,10 @@
     <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -692,11 +700,8 @@
       <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -709,17 +714,16 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -727,89 +731,84 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>45</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="11">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>44</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -817,12 +816,11 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>146</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -835,47 +833,45 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -883,23 +879,22 @@
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>44</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -907,23 +902,22 @@
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>7</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
@@ -931,47 +925,45 @@
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>45</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -979,49 +971,45 @@
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="2">
-        <v>157</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
+      <c r="E15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -1029,25 +1017,22 @@
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="1">
-        <v>219</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
+      <c r="E17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1055,23 +1040,22 @@
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>7</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -1079,18 +1063,17 @@
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>52</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="3"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -1103,18 +1086,17 @@
       <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="2"/>
+      <c r="E20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -1127,23 +1109,22 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>40</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1151,23 +1132,22 @@
       <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>33</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="3"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1175,23 +1155,22 @@
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>50</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1199,23 +1178,22 @@
       <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>8</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -1223,47 +1201,45 @@
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
+      <c r="E25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -1271,23 +1247,22 @@
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>185</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -1295,23 +1270,22 @@
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>29</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -1319,23 +1293,22 @@
       <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>115</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="3"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -1343,23 +1316,22 @@
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>190</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="3"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -1367,23 +1339,22 @@
       <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>37</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="3"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -1391,23 +1362,22 @@
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="3"/>
+      <c r="E32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -1415,23 +1385,22 @@
       <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>48</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="3"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -1439,42 +1408,40 @@
       <c r="D34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>52</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="3"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>35</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="3"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -1487,17 +1454,16 @@
       <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>29</v>
       </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
@@ -1505,17 +1471,16 @@
       <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>107</v>
       </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
@@ -1523,12 +1488,11 @@
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>115</v>
       </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>6</v>
       </c>
@@ -1541,12 +1505,11 @@
       <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>37</v>
       </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>7</v>
       </c>
@@ -1559,12 +1522,11 @@
       <c r="D40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>33</v>
       </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -1577,17 +1539,16 @@
       <c r="D41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>48</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>8</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -1595,17 +1556,16 @@
       <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>52</v>
       </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>8</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -1613,17 +1573,16 @@
       <c r="D43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>51</v>
       </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>9</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>5</v>
@@ -1631,17 +1590,16 @@
       <c r="D44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>117</v>
       </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>12</v>
@@ -1649,17 +1607,16 @@
       <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>40</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>11</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
@@ -1667,17 +1624,16 @@
       <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>126</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
@@ -1685,17 +1641,16 @@
       <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>122</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>14</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>5</v>
@@ -1704,18 +1659,15 @@
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="9">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
@@ -1724,23 +1676,24 @@
         <v>3</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="9">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/messy-project-directory/Survey Data_clean.xlsx
+++ b/messy-project-directory/Survey Data_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carac\Documents\UW MCB PhD\Computational Tools\tfcb_homework02\tfcb-homework02\messy-project-directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5248F27B-F10F-42D8-A758-1E565E79ABBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BFA290-60C8-480A-8A3D-083264F0E6F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>2013-07-17</t>
   </si>
   <si>
-    <t xml:space="preserve">Weight (g) (calibrated) </t>
-  </si>
-  <si>
     <t>2013-08-19</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>* indicates data not calibrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight (g) </t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -648,7 +648,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83990D8B-2392-4656-AC03-C630F945A319}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
     <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -834,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="3"/>
@@ -848,16 +848,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="3"/>
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -917,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
@@ -940,16 +940,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="3"/>
@@ -963,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="3"/>
@@ -986,16 +986,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="3"/>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="3"/>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1055,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="3"/>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1170,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1193,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="3"/>
@@ -1216,16 +1216,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="3"/>
@@ -1239,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -1354,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="3"/>
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -1400,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -1423,10 +1423,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
@@ -1480,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -1565,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>5</v>
@@ -1599,7 +1599,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>12</v>
@@ -1616,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
@@ -1633,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
@@ -1650,7 +1650,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>5</v>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
@@ -1676,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1688,12 +1688,12 @@
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
